--- a/4 четверть_7_JavaScript_Advanced.xlsx
+++ b/4 четверть_7_JavaScript_Advanced.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Machenike\Desktop\Homework_repo\GB_Developer_Workbook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA84CEBA-D96C-46B8-9060-7BEFD324D97E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D5A4825-CAD6-47D0-9AD5-8C5F093451E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="202">
   <si>
     <t>Урок 1 часть 1</t>
   </si>
@@ -2106,17 +2106,884 @@
   <si>
     <t>Лекция 2 - 00:46:00</t>
   </si>
+  <si>
+    <t>var, function</t>
+  </si>
+  <si>
+    <t>Устаревший оператор объявления переменной var создавал переменные в
+глобальном объекте. 
+Функции, объявленные с ключевым словом function, также
+создаются с привязкой к window.</t>
+  </si>
+  <si>
+    <t>Лучше не хранить в глобальной области какие-либо данные, так
+как потом заметно сложнее отследить какие-либо ошибки в расчётах. Иногда
+крайне полезно хранить глобальный объект для использования в приложении, а в
+некоторых фреймворках, например, в React, без него не обойтись. Для этого
+используют специальные правила, управляющие хранением данных, которые
+называются управлением состоянием приложения (State Management).</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Важно!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Глобальный объект window хранит также все встроенные классы в JavaScript. Класс Array и Symbol, их описание хранится именно в window</t>
+    </r>
+  </si>
+  <si>
+    <t>Функции</t>
+  </si>
+  <si>
+    <t>Функциям присущи операции, которые можно проводить с объектами: передавать по ссылке, добавлять свойства, методы и тому подобное.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">У функций есть два специальных свойства: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, с помощью которого мы можем получить имя функции и 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>length</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, позволяющее получить количество аргументов, описанных при объявлении без учёта остаточных аргументов. Кроме того, мы можем определить собственные свойства.</t>
+    </r>
+  </si>
+  <si>
+    <t>имя_функции.name
+имя_функции.length</t>
+  </si>
+  <si>
+    <t>имя_функции.name</t>
+  </si>
+  <si>
+    <t>Свойство name можно использовать для идентификации функции в средствах
+отладки или в сообщениях об ошибках. Оно доступно только для чтения и не может быть изменено оператором присваивания</t>
+  </si>
+  <si>
+    <t>имя_функции.length</t>
+  </si>
+  <si>
+    <t>Свойство length указывает, сколько аргументов ожидает функция, т. е. количество формальных параметров. Это число не включает остаточные параметры и включает только параметры перед первым параметром со значением по умолчанию.
+Напротив, arguments.length является локальным для функции и показывает
+количество аргументов, фактически переданных функции.</t>
+  </si>
+  <si>
+    <t>Сеттеры и геттеры</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Задаются в виде имени того параметра/свойства, с которым работают
+</t>
+    </r>
+  </si>
+  <si>
+    <t>_horsePowers = 10;
+Указываются в виде нижнего подчеркивания в начале названия переменной.</t>
+  </si>
+  <si>
+    <t>Если в Runtime идет попытка изменить значение данного параметра, то будет вызвана ошибка.</t>
+  </si>
+  <si>
+    <t>Защищённое свойства</t>
+  </si>
+  <si>
+    <t>Приватное свойство</t>
+  </si>
+  <si>
+    <t>#horsePowers = 10;
+Указываются в виде # в начале названия переменной.</t>
+  </si>
+  <si>
+    <t>Если в скрипте происходит попытка изменить значение данного параметра, то будет вызвана ошибка до запуска Runtime</t>
+  </si>
+  <si>
+    <t>Опциональная цепочка вызовов методов</t>
+  </si>
+  <si>
+    <t>Оператор нулевого слияния</t>
+  </si>
+  <si>
+    <t>obj.key = null</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">obj.key </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//Uncaught TypeError: Cannot read properties of undefined (reading 'key')</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">obj?.key </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>//undefined</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Пояснение! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>В итоге, никакой ошибки выдано не будет, нам просто вернётся значение undefined без лишних нагромождений условных операторов.</t>
+    </r>
+  </si>
+  <si>
+    <t>Допустим, есть у нас две переменных a и b. Если значение в переменной a равно null или undefined, мы хотим использовать значение переменной b.</t>
+  </si>
+  <si>
+    <t>console.log(null ?? 'значение по умолчанию');
+console.log(undefined ?? null ?? 'значение по умолчанию');</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Пояснение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Ранее часто пользовались логическим оператором ||, но он мог отнести к отсутствию данных значения, которые при неявном преобразовании типов
+приводились к булеву значению false: пустую строку, 0, NaN и, собственно, false.</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 3 часть 1</t>
+  </si>
+  <si>
+    <t>Лекция 3 - 00:46:00</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Урок 3. Промисы. Хранилище
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cookies</t>
+    </r>
+  </si>
+  <si>
+    <t>Cookies</t>
+  </si>
+  <si>
+    <t>Функция устанавливает cookie с указанными именем, значением и сроком действия в днях</t>
+  </si>
+  <si>
+    <t>INSERT</t>
+  </si>
+  <si>
+    <t>SELECT</t>
+  </si>
+  <si>
+    <t>DELETE</t>
+  </si>
+  <si>
+    <t>Функция возвращает значение cookie с указанным именем</t>
+  </si>
+  <si>
+    <t>Функция удаляет cookie с указанным именем</t>
+  </si>
+  <si>
+    <t>Лекция 3 - 00:49:00</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Определение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cookie – это строки с данными, которые хранятся в браузере. </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Очень важно! </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Куки устанавливаются веб-сервером. Устанавливаются с помощью HTTP-заголовка Set-Cookie, затем браузер их будет вставлять во все запросы с помощью заголовка Cookie.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Куки имеют максимальный объём данных 4Кб для одной пары ключ-значение, поэтому много информации записать в них не получится. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let deleteCookie = (name) =&gt; {
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>document.cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = name + '=; expires=Thu, 01 Jan 1970 00:00:00 UTC; path=/; ';
+};
+deleteCookie('userinfo2');</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let getCookie = (name) =&gt; {
+  let cookies document.cookie.split(';');
+  for (let cookie of cookies) {
+    let [cookieName, cookieValue] = cookie.trim().split('=');
+    if (cookieName === name) {
+      return </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>decodeURIComponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(cookieValue);
+    }
+  }
+  return null;
+};
+let username = getCookie('username');
+console.log('значение соokie "username":', username);</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">let setCookie = (name, value, days) =&gt; {
+  let expirationDate = new Date();
+  expirationDate.setDate(expirationDate.getDate() + days);
+  let cookieValue = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>encodeURIComponent</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(value) + '; expires=' + expirationDate.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>toUTCString</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">();
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>document.cookie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> = name + '=' + cookieValue;
+};
+setCookie('username', 'John Doe', 7);
+setCookie('userinfo2', 'Mister', 5);
+setCookie('userinfo', 'Mister2', 55);</t>
+    </r>
+  </si>
+  <si>
+    <t>Урок 3 часть 2</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Урок 3. Промисы. Хранилище
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Генераторы</t>
+    </r>
+  </si>
+  <si>
+    <t>Генераторы</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Определение!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Генераторы – это специальный тип функции, который может приостанавливать своё выполнение, принимать промежуточные данные и продолжать своё выполнение с новыми вводными.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Сам генератор записывается как функция – выражение со звёздочкой после ключевого слова function. Промежуточные значения могут возвращаться с помощью оператора yield. Само выражение с объявлением генератора не вызывает его, а возвращает специальный объект генератора, с помощью которого мы можем управлять его выполнением. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Запустить выполнение генератора мы можем с помощью метода </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>next().</t>
+    </r>
+  </si>
+  <si>
+    <t>function* numberGenerator() {
+  let number = 1;
+  while (true) {
+    yield number;
+    number++;
+}</t>
+  </si>
+  <si>
+    <t>const generator = numberGenerator();</t>
+  </si>
+  <si>
+    <t>console.log(generator.next().value); // 1
+console.log(generator.next().value); // 2
+console.log(generator.next().value); // 3
+console.log(generator.next().value); // 4</t>
+  </si>
+  <si>
+    <t>Создаем экземпляр генератора</t>
+  </si>
+  <si>
+    <t>Генератор для генерации последовательности чисел</t>
+  </si>
+  <si>
+    <t>Генерируем итератор, который будет возвращать следующее число при каждом вызове next()</t>
+  </si>
+  <si>
+    <t>Лекция 3 - 01:14:00</t>
+  </si>
+  <si>
+    <t>Лекция 2 - 00:12:38</t>
+  </si>
+  <si>
+    <r>
+      <t>const newWindow =</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> window.open</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">('https://www.example.com', '_blank'); //Открывает Hовое окно браузера
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window.resizeTo(800, 600)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">; // Изменяет размер окна на 800х600 пикселей
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window.location.href</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">='https://www.example.com'; // Перенаправляет на другу страничу
+const windowWidth = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window.innerWidth</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; // Пoлучает ширину окна</t>
+    </r>
+  </si>
+  <si>
+    <t>Рабоτа c window.window</t>
+  </si>
+  <si>
+    <t>Рабоτа c window</t>
+  </si>
+  <si>
+    <t>Рабоτа с self</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const isWindowOpen = window.window.open('https://www.example.com') !== null; // Проверяет, открыто ли окно
+const windowHeight = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>window.window.innerHeight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; // Получает высоту окна
+window.window.location.href = 'https://www.example.com'; // Перенаправляет на другую страницу во вложенном окне</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">const newWindowSelf = self.open('https://www.example.com', '_blank'); // Откpывает новое окно браузера с использованием self
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>self.close()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>; // Закрывает текущее окно с использованием self
+self.resizeTo(800, 600); // Изменяет размер окна на 800x600 пикселей с использованием self
+self.location.href='https://www.example.com'; // Перенаправляет на другук страничу c использованием self</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Дополнительно смотри!</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 четверть_5_JavaScript_Front_события_медиафайлы_геолокация =&gt; Геолокация</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2201,8 +3068,17 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2269,6 +3145,18 @@
         <bgColor theme="8" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -2281,9 +3169,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2294,23 +3182,23 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
@@ -2319,49 +3207,79 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="10" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="11" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2508,6 +3426,182 @@
         <a:xfrm>
           <a:off x="11086353" y="39132337"/>
           <a:ext cx="3854126" cy="1343309"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59765</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>67236</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1270000</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>670547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3CE8E1B-4EAD-CC65-1635-887CF2552E27}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2577353" y="52988883"/>
+          <a:ext cx="1210235" cy="603311"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>59766</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1748118</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>519946</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1A24DE4-F457-5571-6D8B-6C3BE6083862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2577354" y="58121177"/>
+          <a:ext cx="1688352" cy="497534"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>67236</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>55409</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2662042</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>1885398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA7EB82-1F39-10AE-FDEA-01EBE4EBFCD7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6118412" y="62412409"/>
+          <a:ext cx="2594806" cy="1829989"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>146072</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>126999</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3749261</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>1424777</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E436161B-93DE-60B0-877B-BE44FBA89B88}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11156420" y="72610869"/>
+          <a:ext cx="3603189" cy="1297778"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2785,10 +3879,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:V96"/>
+  <dimension ref="A2:V141"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A96" sqref="A96"/>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2951,6 +4045,9 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="58" x14ac:dyDescent="0.35">
+      <c r="B17" s="28" t="s">
+        <v>138</v>
+      </c>
       <c r="C17" s="9" t="s">
         <v>19</v>
       </c>
@@ -3477,173 +4574,514 @@
       <c r="U76" s="1"/>
       <c r="V76" s="2"/>
     </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A79" s="3"/>
-      <c r="B79" s="5"/>
-      <c r="C79" s="6"/>
-      <c r="D79" s="3"/>
-      <c r="F79" s="3"/>
-      <c r="G79" s="5"/>
-      <c r="H79" s="3"/>
-      <c r="I79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="3"/>
-      <c r="P79" s="5"/>
-      <c r="Q79" s="5"/>
-      <c r="R79" s="5"/>
-      <c r="S79" s="5"/>
-      <c r="U79" s="5"/>
-    </row>
-    <row r="80" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A77" s="11" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="78" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="C78" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="79" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="B79" s="36" t="s">
+        <v>201</v>
+      </c>
+      <c r="C79" s="28" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="80" spans="1:22" ht="87" x14ac:dyDescent="0.35">
       <c r="A80" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="C80" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="81" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A81" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="C81" s="35" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="82" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="A82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C83" s="35"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A84" s="3"/>
+      <c r="B84" s="5"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="3"/>
+      <c r="F84" s="3"/>
+      <c r="G84" s="5"/>
+      <c r="H84" s="3"/>
+      <c r="I84" s="3"/>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="3"/>
+      <c r="P84" s="5"/>
+      <c r="Q84" s="5"/>
+      <c r="R84" s="5"/>
+      <c r="S84" s="5"/>
+      <c r="U84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A85" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="C80" s="27" t="s">
+      <c r="C85" s="27" t="s">
         <v>122</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="D85" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="P80" s="1"/>
-      <c r="U80" s="1"/>
-      <c r="V80" s="2"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A83" s="3"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="6"/>
-      <c r="D83" s="3"/>
-      <c r="F83" s="3"/>
-      <c r="G83" s="5"/>
-      <c r="H83" s="3"/>
-      <c r="I83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="3"/>
-      <c r="P83" s="5"/>
-      <c r="Q83" s="5"/>
-      <c r="R83" s="5"/>
-      <c r="S83" s="5"/>
-      <c r="U83" s="5"/>
-    </row>
-    <row r="84" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A84" s="1" t="s">
+      <c r="P85" s="1"/>
+      <c r="U85" s="1"/>
+      <c r="V85" s="2"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A86" s="11" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="87" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C87" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="88" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A88" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C88" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A89" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C90" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A91" s="12" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="92" spans="1:22" ht="101.5" x14ac:dyDescent="0.35">
+      <c r="C92" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A94" s="3"/>
+      <c r="B94" s="5"/>
+      <c r="C94" s="6"/>
+      <c r="D94" s="3"/>
+      <c r="F94" s="3"/>
+      <c r="G94" s="5"/>
+      <c r="H94" s="3"/>
+      <c r="I94" s="3"/>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="3"/>
+      <c r="P94" s="5"/>
+      <c r="Q94" s="5"/>
+      <c r="R94" s="5"/>
+      <c r="S94" s="5"/>
+      <c r="U94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A95" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="C84" s="27" t="s">
+      <c r="C95" s="27" t="s">
         <v>124</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="D95" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="P84" s="1"/>
-      <c r="U84" s="1"/>
-      <c r="V84" s="2"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A87" s="3"/>
-      <c r="B87" s="5"/>
-      <c r="C87" s="6"/>
-      <c r="D87" s="3"/>
-      <c r="F87" s="3"/>
-      <c r="G87" s="5"/>
-      <c r="H87" s="3"/>
-      <c r="I87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="3"/>
-      <c r="P87" s="5"/>
-      <c r="Q87" s="5"/>
-      <c r="R87" s="5"/>
-      <c r="S87" s="5"/>
-      <c r="U87" s="5"/>
-    </row>
-    <row r="88" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A88" s="1" t="s">
+      <c r="P95" s="1"/>
+      <c r="U95" s="1"/>
+      <c r="V95" s="2"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A98" s="3"/>
+      <c r="B98" s="5"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="3"/>
+      <c r="F98" s="3"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="3"/>
+      <c r="I98" s="3"/>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="3"/>
+      <c r="P98" s="5"/>
+      <c r="Q98" s="5"/>
+      <c r="R98" s="5"/>
+      <c r="S98" s="5"/>
+      <c r="U98" s="5"/>
+    </row>
+    <row r="99" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="C88" s="27" t="s">
+      <c r="C99" s="29" t="s">
         <v>127</v>
       </c>
-      <c r="D88" s="1" t="s">
+      <c r="D99" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="P88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="2"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A91" s="3"/>
-      <c r="B91" s="5"/>
-      <c r="C91" s="6"/>
-      <c r="D91" s="3"/>
-      <c r="F91" s="3"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="3"/>
-      <c r="I91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="3"/>
-      <c r="P91" s="5"/>
-      <c r="Q91" s="5"/>
-      <c r="R91" s="5"/>
-      <c r="S91" s="5"/>
-      <c r="U91" s="5"/>
-    </row>
-    <row r="92" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A92" s="1" t="s">
+      <c r="P99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="2"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A100" s="11" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="101" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="B101" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A103" s="3"/>
+      <c r="B103" s="5"/>
+      <c r="C103" s="6"/>
+      <c r="D103" s="3"/>
+      <c r="F103" s="3"/>
+      <c r="G103" s="5"/>
+      <c r="H103" s="3"/>
+      <c r="I103" s="3"/>
+      <c r="K103" s="3"/>
+      <c r="L103" s="3"/>
+      <c r="M103" s="3"/>
+      <c r="N103" s="3"/>
+      <c r="P103" s="5"/>
+      <c r="Q103" s="5"/>
+      <c r="R103" s="5"/>
+      <c r="S103" s="5"/>
+      <c r="U103" s="5"/>
+    </row>
+    <row r="104" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A104" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="C92" s="27" t="s">
+      <c r="C104" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="D92" s="1" t="s">
+      <c r="D104" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="P92" s="1"/>
-      <c r="U92" s="1"/>
-      <c r="V92" s="2"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.35">
-      <c r="A95" s="3"/>
-      <c r="B95" s="5"/>
-      <c r="C95" s="6"/>
-      <c r="D95" s="3"/>
-      <c r="F95" s="3"/>
-      <c r="G95" s="5"/>
-      <c r="H95" s="3"/>
-      <c r="I95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="3"/>
-      <c r="P95" s="5"/>
-      <c r="Q95" s="5"/>
-      <c r="R95" s="5"/>
-      <c r="S95" s="5"/>
-      <c r="U95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" ht="29" x14ac:dyDescent="0.35">
-      <c r="A96" s="1" t="s">
+      <c r="P104" s="1"/>
+      <c r="U104" s="1"/>
+      <c r="V104" s="2"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A105" s="11" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="106" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C106" s="28" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="107" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C107" s="28" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A108" s="11" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="109" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C109" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="110" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C110" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A112" s="3"/>
+      <c r="B112" s="5"/>
+      <c r="C112" s="6"/>
+      <c r="D112" s="3"/>
+      <c r="F112" s="3"/>
+      <c r="G112" s="5"/>
+      <c r="H112" s="3"/>
+      <c r="I112" s="3"/>
+      <c r="K112" s="3"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3"/>
+      <c r="N112" s="3"/>
+      <c r="P112" s="5"/>
+      <c r="Q112" s="5"/>
+      <c r="R112" s="5"/>
+      <c r="S112" s="5"/>
+      <c r="U112" s="5"/>
+    </row>
+    <row r="113" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A113" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="C96" s="27" t="s">
+      <c r="C113" s="27" t="s">
         <v>133</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="D113" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="P96" s="1"/>
-      <c r="U96" s="1"/>
-      <c r="V96" s="2"/>
+      <c r="P113" s="1"/>
+      <c r="U113" s="1"/>
+      <c r="V113" s="2"/>
+    </row>
+    <row r="114" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A114" s="30" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B115" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="116" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="B116" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="C116" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A117" s="11" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="118" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="C118" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="119" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="B119" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="C119" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A121" s="3"/>
+      <c r="B121" s="5"/>
+      <c r="C121" s="6"/>
+      <c r="D121" s="3"/>
+      <c r="F121" s="3"/>
+      <c r="G121" s="5"/>
+      <c r="H121" s="3"/>
+      <c r="I121" s="3"/>
+      <c r="K121" s="3"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3"/>
+      <c r="N121" s="3"/>
+      <c r="P121" s="5"/>
+      <c r="Q121" s="5"/>
+      <c r="R121" s="5"/>
+      <c r="S121" s="5"/>
+      <c r="U121" s="5"/>
+    </row>
+    <row r="122" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A122" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C122" s="31" t="s">
+        <v>166</v>
+      </c>
+      <c r="P122" s="1"/>
+      <c r="U122" s="1"/>
+      <c r="V122" s="2"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A123" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A124" s="2"/>
+      <c r="C124" s="32" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="125" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A125" s="2"/>
+      <c r="C125" s="32" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="126" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A126" s="2"/>
+      <c r="C126" s="32" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="127" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A127" s="2"/>
+      <c r="B127" s="15" t="s">
+        <v>169</v>
+      </c>
+      <c r="C127" s="32" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:22" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="C128" s="32" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B129" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="C129" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D129" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130" spans="1:22" ht="188.5" x14ac:dyDescent="0.35">
+      <c r="C130" s="32" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B131" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="C131" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="D131" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C132" s="32" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A133" s="3"/>
+      <c r="B133" s="5"/>
+      <c r="C133" s="6"/>
+      <c r="D133" s="3"/>
+      <c r="F133" s="3"/>
+      <c r="G133" s="5"/>
+      <c r="H133" s="3"/>
+      <c r="I133" s="3"/>
+      <c r="K133" s="3"/>
+      <c r="L133" s="3"/>
+      <c r="M133" s="3"/>
+      <c r="N133" s="3"/>
+      <c r="P133" s="5"/>
+      <c r="Q133" s="5"/>
+      <c r="R133" s="5"/>
+      <c r="S133" s="5"/>
+      <c r="U133" s="5"/>
+    </row>
+    <row r="134" spans="1:22" ht="29" x14ac:dyDescent="0.35">
+      <c r="A134" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C134" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="P134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="2"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="A135" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="C136" s="32" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="137" spans="1:22" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="C137" s="32" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="C138" s="32" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="139" spans="1:22" ht="87" x14ac:dyDescent="0.35">
+      <c r="B139" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C139" s="32" t="s">
+        <v>187</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.35">
+      <c r="B140" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C140" s="32" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="141" spans="1:22" ht="58" x14ac:dyDescent="0.35">
+      <c r="B141" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C141" s="32" t="s">
+        <v>189</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="10" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <drawing r:id="rId2"/>
